--- a/INDIVIDUALES/productor 4.xlsx
+++ b/INDIVIDUALES/productor 4.xlsx
@@ -12,6 +12,9 @@
     <sheet name="Porcentajes" sheetId="3" r:id="rId3"/>
     <sheet name="Intervalo " sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2220,7 +2223,286 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>13832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609975" y="3810000"/>
+          <a:ext cx="7629525" cy="4585832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="cantidad inicial pollos"/>
+      <sheetName val="cantidad pollos muertos"/>
+      <sheetName val="Estadisticas Descriptivas"/>
+      <sheetName val="porcentaje de mortalidad"/>
+      <sheetName val="regiones de credibilidad bin"/>
+      <sheetName val="Intervalos finales productores"/>
+      <sheetName val="Hoja5"/>
+      <sheetName val="Hoja6"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Inferior</v>
+          </cell>
+          <cell r="C53">
+            <v>4.1197378662115404E-2</v>
+          </cell>
+          <cell r="D53">
+            <v>5.3456965675957188E-2</v>
+          </cell>
+          <cell r="E53">
+            <v>5.4733464612875302E-2</v>
+          </cell>
+          <cell r="F53">
+            <v>4.3468105715093103E-2</v>
+          </cell>
+          <cell r="G53">
+            <v>4.1234204686153998E-2</v>
+          </cell>
+          <cell r="H53">
+            <v>2.3930428344953691E-2</v>
+          </cell>
+          <cell r="I53">
+            <v>1.3449454591525535E-2</v>
+          </cell>
+          <cell r="J53">
+            <v>4.1361485834885789E-2</v>
+          </cell>
+          <cell r="K53">
+            <v>3.5200942492082325E-2</v>
+          </cell>
+          <cell r="L53">
+            <v>2.8222425794628712E-2</v>
+          </cell>
+          <cell r="M53">
+            <v>1.9286504664082497E-2</v>
+          </cell>
+          <cell r="N53">
+            <v>2.7598277142915569E-2</v>
+          </cell>
+          <cell r="O53">
+            <v>2.8691458140529178E-2</v>
+          </cell>
+          <cell r="P53">
+            <v>1.9120598849531292E-2</v>
+          </cell>
+          <cell r="Q53">
+            <v>5.7365688884121871E-2</v>
+          </cell>
+          <cell r="R53">
+            <v>1.2428363815292233E-2</v>
+          </cell>
+          <cell r="S53">
+            <v>2.9770344615892265E-2</v>
+          </cell>
+          <cell r="T53">
+            <v>1.8076200671049761E-2</v>
+          </cell>
+          <cell r="U53">
+            <v>7.3168264260430854E-2</v>
+          </cell>
+          <cell r="V53">
+            <v>2.6541842190424408E-2</v>
+          </cell>
+          <cell r="W53">
+            <v>8.5700797263924572E-2</v>
+          </cell>
+          <cell r="X53">
+            <v>2.6541842190424408E-2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Superior</v>
+          </cell>
+          <cell r="C54">
+            <v>6.3384839406104843E-2</v>
+          </cell>
+          <cell r="D54">
+            <v>7.8165819812249793E-2</v>
+          </cell>
+          <cell r="E54">
+            <v>7.8871385119021364E-2</v>
+          </cell>
+          <cell r="F54">
+            <v>6.534330578859493E-2</v>
+          </cell>
+          <cell r="G54">
+            <v>6.2620361730186369E-2</v>
+          </cell>
+          <cell r="H54">
+            <v>4.0860088948597495E-2</v>
+          </cell>
+          <cell r="I54">
+            <v>2.6854421830143971E-2</v>
+          </cell>
+          <cell r="J54">
+            <v>6.281148223404498E-2</v>
+          </cell>
+          <cell r="K54">
+            <v>5.5205192379595647E-2</v>
+          </cell>
+          <cell r="L54">
+            <v>4.6472680258196508E-2</v>
+          </cell>
+          <cell r="M54">
+            <v>3.4905482139645616E-2</v>
+          </cell>
+          <cell r="N54">
+            <v>4.5646815638606286E-2</v>
+          </cell>
+          <cell r="O54">
+            <v>4.7043598052259217E-2</v>
+          </cell>
+          <cell r="P54">
+            <v>3.460759966869742E-2</v>
+          </cell>
+          <cell r="Q54">
+            <v>8.194369213089403E-2</v>
+          </cell>
+          <cell r="R54">
+            <v>2.5405554786504858E-2</v>
+          </cell>
+          <cell r="S54">
+            <v>4.8409897399034896E-2</v>
+          </cell>
+          <cell r="T54">
+            <v>3.3206759710447509E-2</v>
+          </cell>
+          <cell r="U54">
+            <v>0.10037325114945084</v>
+          </cell>
+          <cell r="V54">
+            <v>4.4302833059148283E-2</v>
+          </cell>
+          <cell r="W54">
+            <v>0.11473735960107556</v>
+          </cell>
+          <cell r="X54">
+            <v>4.4302833059148283E-2</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Centro</v>
+          </cell>
+          <cell r="C55">
+            <v>5.229110903411012E-2</v>
+          </cell>
+          <cell r="D55">
+            <v>6.5811392744103497E-2</v>
+          </cell>
+          <cell r="E55">
+            <v>6.680242486594834E-2</v>
+          </cell>
+          <cell r="F55">
+            <v>5.4405705751844016E-2</v>
+          </cell>
+          <cell r="G55">
+            <v>5.192728320817018E-2</v>
+          </cell>
+          <cell r="H55">
+            <v>3.2395258646775595E-2</v>
+          </cell>
+          <cell r="I55">
+            <v>2.0151938210834754E-2</v>
+          </cell>
+          <cell r="J55">
+            <v>5.2086484034465384E-2</v>
+          </cell>
+          <cell r="K55">
+            <v>4.5203067435838989E-2</v>
+          </cell>
+          <cell r="L55">
+            <v>3.7347553026412614E-2</v>
+          </cell>
+          <cell r="M55">
+            <v>2.7095993401864055E-2</v>
+          </cell>
+          <cell r="N55">
+            <v>3.6622546390760929E-2</v>
+          </cell>
+          <cell r="O55">
+            <v>3.7867528096394196E-2</v>
+          </cell>
+          <cell r="P55">
+            <v>2.6864099259114357E-2</v>
+          </cell>
+          <cell r="Q55">
+            <v>6.9654690507507944E-2</v>
+          </cell>
+          <cell r="R55">
+            <v>1.8916959300898546E-2</v>
+          </cell>
+          <cell r="S55">
+            <v>3.9090121007463577E-2</v>
+          </cell>
+          <cell r="T55">
+            <v>2.5641480190748633E-2</v>
+          </cell>
+          <cell r="U55">
+            <v>8.6770757704940846E-2</v>
+          </cell>
+          <cell r="V55">
+            <v>3.5422337624786346E-2</v>
+          </cell>
+          <cell r="W55">
+            <v>0.10021907843250007</v>
+          </cell>
+          <cell r="X55">
+            <v>3.5422337624786346E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2847,7 +3129,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N10"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
